--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -528,52 +528,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.2208070463334</v>
+        <v>40.797777</v>
       </c>
       <c r="H2">
-        <v>36.2208070463334</v>
+        <v>122.393331</v>
       </c>
       <c r="I2">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="J2">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.65971932407604</v>
+        <v>4.806204333333334</v>
       </c>
       <c r="N2">
-        <v>4.65971932407604</v>
+        <v>14.418613</v>
       </c>
       <c r="O2">
-        <v>0.7254594246516368</v>
+        <v>0.7287437301541012</v>
       </c>
       <c r="P2">
-        <v>0.7254594246516368</v>
+        <v>0.7287437301541012</v>
       </c>
       <c r="Q2">
-        <v>168.7787945274293</v>
+        <v>196.082452607767</v>
       </c>
       <c r="R2">
-        <v>168.7787945274293</v>
+        <v>1764.742073469903</v>
       </c>
       <c r="S2">
-        <v>0.1903676145846486</v>
+        <v>0.1959760580911223</v>
       </c>
       <c r="T2">
-        <v>0.1903676145846486</v>
+        <v>0.1959760580911223</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.2208070463334</v>
+        <v>40.797777</v>
       </c>
       <c r="H3">
-        <v>36.2208070463334</v>
+        <v>122.393331</v>
       </c>
       <c r="I3">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="J3">
-        <v>0.2624097339090501</v>
+        <v>0.2689231481273683</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.76340947642665</v>
+        <v>1.788987</v>
       </c>
       <c r="N3">
-        <v>1.76340947642665</v>
+        <v>5.366961</v>
       </c>
       <c r="O3">
-        <v>0.2745405753483631</v>
+        <v>0.2712562698458988</v>
       </c>
       <c r="P3">
-        <v>0.2745405753483631</v>
+        <v>0.2712562698458988</v>
       </c>
       <c r="Q3">
-        <v>63.87211438932549</v>
+        <v>72.986692681899</v>
       </c>
       <c r="R3">
-        <v>63.87211438932549</v>
+        <v>656.8802341370911</v>
       </c>
       <c r="S3">
-        <v>0.07204211932440149</v>
+        <v>0.07294709003624604</v>
       </c>
       <c r="T3">
-        <v>0.07204211932440149</v>
+        <v>0.07294709003624605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.1615960274159</v>
+        <v>46.219831</v>
       </c>
       <c r="H4">
-        <v>46.1615960274159</v>
+        <v>138.659493</v>
       </c>
       <c r="I4">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="J4">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.65971932407604</v>
+        <v>4.806204333333334</v>
       </c>
       <c r="N4">
-        <v>4.65971932407604</v>
+        <v>14.418613</v>
       </c>
       <c r="O4">
-        <v>0.7254594246516368</v>
+        <v>0.7287437301541012</v>
       </c>
       <c r="P4">
-        <v>0.7254594246516368</v>
+        <v>0.7287437301541012</v>
       </c>
       <c r="Q4">
-        <v>215.1000810391416</v>
+        <v>222.1419520381343</v>
       </c>
       <c r="R4">
-        <v>215.1000810391416</v>
+        <v>1999.277568343209</v>
       </c>
       <c r="S4">
-        <v>0.2426139458990582</v>
+        <v>0.222021417613461</v>
       </c>
       <c r="T4">
-        <v>0.2426139458990582</v>
+        <v>0.222021417613461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.1615960274159</v>
+        <v>46.219831</v>
       </c>
       <c r="H5">
-        <v>46.1615960274159</v>
+        <v>138.659493</v>
       </c>
       <c r="I5">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="J5">
-        <v>0.3344280019734537</v>
+        <v>0.3046632285488233</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.76340947642665</v>
+        <v>1.788987</v>
       </c>
       <c r="N5">
-        <v>1.76340947642665</v>
+        <v>5.366961</v>
       </c>
       <c r="O5">
-        <v>0.2745405753483631</v>
+        <v>0.2712562698458988</v>
       </c>
       <c r="P5">
-        <v>0.2745405753483631</v>
+        <v>0.2712562698458988</v>
       </c>
       <c r="Q5">
-        <v>81.40179588172398</v>
+        <v>82.686676801197</v>
       </c>
       <c r="R5">
-        <v>81.40179588172398</v>
+        <v>744.180091210773</v>
       </c>
       <c r="S5">
-        <v>0.09181405607439551</v>
+        <v>0.08264181093536237</v>
       </c>
       <c r="T5">
-        <v>0.09181405607439551</v>
+        <v>0.08264181093536237</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.6490887720804</v>
+        <v>64.69033266666666</v>
       </c>
       <c r="H6">
-        <v>55.6490887720804</v>
+        <v>194.070998</v>
       </c>
       <c r="I6">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="J6">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.65971932407604</v>
+        <v>4.806204333333334</v>
       </c>
       <c r="N6">
-        <v>4.65971932407604</v>
+        <v>14.418613</v>
       </c>
       <c r="O6">
-        <v>0.7254594246516368</v>
+        <v>0.7287437301541012</v>
       </c>
       <c r="P6">
-        <v>0.7254594246516368</v>
+        <v>0.7287437301541012</v>
       </c>
       <c r="Q6">
-        <v>259.309134318486</v>
+        <v>310.9149571873082</v>
       </c>
       <c r="R6">
-        <v>259.309134318486</v>
+        <v>2798.234614685774</v>
       </c>
       <c r="S6">
-        <v>0.2924778641679299</v>
+        <v>0.3107462544495179</v>
       </c>
       <c r="T6">
-        <v>0.2924778641679299</v>
+        <v>0.3107462544495179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.6490887720804</v>
+        <v>64.69033266666666</v>
       </c>
       <c r="H7">
-        <v>55.6490887720804</v>
+        <v>194.070998</v>
       </c>
       <c r="I7">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="J7">
-        <v>0.4031622641174961</v>
+        <v>0.4264136233238083</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.76340947642665</v>
+        <v>1.788987</v>
       </c>
       <c r="N7">
-        <v>1.76340947642665</v>
+        <v>5.366961</v>
       </c>
       <c r="O7">
-        <v>0.2745405753483631</v>
+        <v>0.2712562698458988</v>
       </c>
       <c r="P7">
-        <v>0.2745405753483631</v>
+        <v>0.2712562698458988</v>
       </c>
       <c r="Q7">
-        <v>98.13213049519446</v>
+        <v>115.730164166342</v>
       </c>
       <c r="R7">
-        <v>98.13213049519446</v>
+        <v>1041.571477497078</v>
       </c>
       <c r="S7">
-        <v>0.1106843999495661</v>
+        <v>0.1156673688742904</v>
       </c>
       <c r="T7">
-        <v>0.1106843999495661</v>
+        <v>0.1156673688742904</v>
       </c>
     </row>
   </sheetData>
